--- a/Diagramme/Listener.xlsx
+++ b/Diagramme/Listener.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Lebenszyklus-Listener</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Extra-Listener:</t>
   </si>
   <si>
-    <t>HttpSessionActivationListener</t>
-  </si>
-  <si>
     <t>sessionWillPassivate</t>
   </si>
   <si>
@@ -97,6 +94,60 @@
   </si>
   <si>
     <t>sessionDidActivate</t>
+  </si>
+  <si>
+    <t>HttpSessionActivationListener - wird nicht im DD registriert</t>
+  </si>
+  <si>
+    <t>Attributen-Listener</t>
+  </si>
+  <si>
+    <t>Scopes:</t>
+  </si>
+  <si>
+    <t>Application-Scope</t>
+  </si>
+  <si>
+    <t>Session-Scope</t>
+  </si>
+  <si>
+    <t>Request-Scope</t>
+  </si>
+  <si>
+    <t>Scope-Träger:</t>
+  </si>
+  <si>
+    <t>ServletContextAttributeListener</t>
+  </si>
+  <si>
+    <t>HttpSessionAttributeListener</t>
+  </si>
+  <si>
+    <t>ServletRequestAttributeListener</t>
+  </si>
+  <si>
+    <t>Methode bei träger.setAttribute</t>
+  </si>
+  <si>
+    <t>attributeAdded</t>
+  </si>
+  <si>
+    <t>Methode bei träger.removeAttribute</t>
+  </si>
+  <si>
+    <t>attributeRemoved</t>
+  </si>
+  <si>
+    <t>attributeReplaced</t>
+  </si>
+  <si>
+    <t>ServletRequestAttributeEvent</t>
+  </si>
+  <si>
+    <t>ServletContextAttributeEvent</t>
+  </si>
+  <si>
+    <t>HttpSessionBindingListener</t>
   </si>
 </sst>
 </file>
@@ -478,18 +529,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,23 +624,23 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,6 +649,109 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Diagramme/Listener.xlsx
+++ b/Diagramme/Listener.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Lebenszyklus-Listener</t>
   </si>
@@ -147,7 +147,25 @@
     <t>ServletContextAttributeEvent</t>
   </si>
   <si>
-    <t>HttpSessionBindingListener</t>
+    <t>HttpSessionBindingEvent</t>
+  </si>
+  <si>
+    <t>HttpSessionBindingListener - wird nicht im DD registriert</t>
+  </si>
+  <si>
+    <t>valueBound</t>
+  </si>
+  <si>
+    <t>valueUnbound</t>
+  </si>
+  <si>
+    <t>Methode beim Hinzufügen zur Session:</t>
+  </si>
+  <si>
+    <t>Methode beim Löschen aus der Session:</t>
+  </si>
+  <si>
+    <t>Hinweis: Wenn die Session abläuft, werden alle vorhandenen Attribute autpmatisch entfernt</t>
   </si>
 </sst>
 </file>
@@ -221,13 +239,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -529,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D25"/>
+  <dimension ref="A3:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,6 +771,43 @@
       </c>
       <c r="D25" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
